--- a/biology/Écologie/Stephen_Schneider/Stephen_Schneider.xlsx
+++ b/biology/Écologie/Stephen_Schneider/Stephen_Schneider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Henry Schneider, né le 11 février 1945 et mort le 19 juillet 2010, est un spécialiste de biologie environnementale et de changement global, professeur à l'université Stanford, co-directeur du Centre pour l'environnement et la politique de la science de l'Institut Freeman Spogli pour les études internationales.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa recherche a inclus la modélisation de l'atmosphère, du changement climatique et des effets du changement climatique sur les systèmes biologiques. Schneider a été le fondateur et éditeur de la revue Climatic Change et auteur ou co-auteur de plus de 450 articles scientifiques et d'autres publications. Il était l'un des principaux auteurs de coordination du groupe de travail II du GIEC TAR.
 Dans les années 1980, Schneider émerge comme l'une des principales voix demandant des réductions nettes d'émissions de gaz à effet de serre pour lutter contre le réchauffement de la planète.
@@ -544,7 +558,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a reçu en 1992 le prix MacArthur pour l'ensemble de ses travaux, et a été élu en 2002 à l'Académie nationale des sciences.
 En février 2007, l'université catholique de Louvain lui décernait le titre de docteur honoris causa pour son implication dans la lutte contre le réchauffement climatique et ses nombreuses études sur l'évolution du climat.
